--- a/image analysis examples/BRANCH1/res.xlsx
+++ b/image analysis examples/BRANCH1/res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>dendrite id</t>
   </si>
@@ -46,211 +46,157 @@
     <t>distance to parallel [μm]</t>
   </si>
   <si>
-    <t>(x: 11, y: 136)</t>
+    <t>(x: 3, y: 130)</t>
   </si>
   <si>
     <t>(x: 102, y: 173)</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>16.19</t>
-  </si>
-  <si>
-    <t>(x: 13, y: 170)</t>
+    <t>(x: 4, y: 115)</t>
+  </si>
+  <si>
+    <t>(x: 137, y: 100)</t>
+  </si>
+  <si>
+    <t>(x: 82, y: 132)</t>
+  </si>
+  <si>
+    <t>(x: 134, y: 80)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>12.020815280171307</t>
+  </si>
+  <si>
+    <t>(x: 85, y: 146)</t>
   </si>
   <si>
     <t>(x: 155, y: 76)</t>
   </si>
   <si>
-    <t>6 , 8 , 7</t>
-  </si>
-  <si>
-    <t>0.22 , 2.92 , 2.86</t>
-  </si>
-  <si>
-    <t>(x: 16, y: 203)</t>
-  </si>
-  <si>
-    <t>(x: 69, y: 184)</t>
-  </si>
-  <si>
-    <t>7 , 4</t>
-  </si>
-  <si>
-    <t>11.63 , 12.95</t>
-  </si>
-  <si>
-    <t>(x: 17, y: 115)</t>
-  </si>
-  <si>
-    <t>(x: 90, y: 101)</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>12.95</t>
-  </si>
-  <si>
-    <t>(x: 50, y: 38)</t>
-  </si>
-  <si>
-    <t>(x: 111, y: 72)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>(x: 68, y: 160)</t>
-  </si>
-  <si>
-    <t>(x: 159, y: 74)</t>
-  </si>
-  <si>
-    <t>8 , 2</t>
-  </si>
-  <si>
-    <t>2.51 , 0.22</t>
-  </si>
-  <si>
-    <t>(x: 109, y: 127)</t>
-  </si>
-  <si>
-    <t>(x: 197, y: 84)</t>
-  </si>
-  <si>
-    <t>2 , 3</t>
-  </si>
-  <si>
-    <t>2.86 , 11.63</t>
-  </si>
-  <si>
-    <t>(x: 159, y: 59)</t>
-  </si>
-  <si>
-    <t>(x: 214, y: 11)</t>
-  </si>
-  <si>
-    <t>6 , 2</t>
-  </si>
-  <si>
-    <t>2.51 , 2.92</t>
-  </si>
-  <si>
-    <t>(x: 184, y: 70)</t>
-  </si>
-  <si>
-    <t>(x: 254, y: 140)</t>
-  </si>
-  <si>
-    <t>15 , 16 , 10 , 12</t>
-  </si>
-  <si>
-    <t>28.59 , 12.64 , 19.08 , 14.66</t>
-  </si>
-  <si>
-    <t>(x: 21, y: 1)</t>
-  </si>
-  <si>
-    <t>(x: 70, y: 62)</t>
-  </si>
-  <si>
-    <t>9 , 15 , 16 , 12</t>
-  </si>
-  <si>
-    <t>19.08 , 15.61 , 23.5 , 0.39</t>
-  </si>
-  <si>
-    <t>(x: 201, y: 57)</t>
-  </si>
-  <si>
-    <t>(x: 245, y: 139)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15.75</t>
-  </si>
-  <si>
-    <t>(x: 63, y: 57)</t>
-  </si>
-  <si>
-    <t>(x: 165, y: 189)</t>
-  </si>
-  <si>
-    <t>9 , 15 , 16 , 10 , 11</t>
-  </si>
-  <si>
-    <t>14.66 , 13.77 , 3.29 , 0.39 , 15.75</t>
-  </si>
-  <si>
-    <t>(x: 221, y: 69)</t>
-  </si>
-  <si>
-    <t>(x: 237, y: 151)</t>
-  </si>
-  <si>
-    <t>(x: 15, y: 30)</t>
-  </si>
-  <si>
-    <t>(x: 13, y: 92)</t>
-  </si>
-  <si>
-    <t>18 , 17</t>
-  </si>
-  <si>
-    <t>19.42 , 27.68</t>
-  </si>
-  <si>
-    <t>(x: 0, y: 124)</t>
-  </si>
-  <si>
-    <t>(x: 60, y: 188)</t>
-  </si>
-  <si>
-    <t>9 , 16 , 10 , 12</t>
-  </si>
-  <si>
-    <t>28.59 , 18.71 , 15.61 , 13.77</t>
-  </si>
-  <si>
-    <t>(x: 169, y: 162)</t>
-  </si>
-  <si>
-    <t>(x: 244, y: 245)</t>
-  </si>
-  <si>
-    <t>9 , 15 , 10 , 12</t>
-  </si>
-  <si>
-    <t>12.64 , 18.71 , 23.5 , 3.29</t>
-  </si>
-  <si>
-    <t>(x: 182, y: 78)</t>
-  </si>
-  <si>
-    <t>(x: 170, y: 169)</t>
-  </si>
-  <si>
-    <t>18 , 14</t>
-  </si>
-  <si>
-    <t>11.52 , 27.68</t>
-  </si>
-  <si>
-    <t>(x: 101, y: 168)</t>
-  </si>
-  <si>
-    <t>(x: 100, y: 245)</t>
-  </si>
-  <si>
-    <t>14 , 17</t>
-  </si>
-  <si>
-    <t>19.42 , 11.52</t>
+    <t>12.020815280171318</t>
+  </si>
+  <si>
+    <t>(x: 87, y: 134)</t>
+  </si>
+  <si>
+    <t>(x: 196, y: 81)</t>
+  </si>
+  <si>
+    <t>(x: 183, y: 77)</t>
+  </si>
+  <si>
+    <t>(x: 255, y: 135)</t>
+  </si>
+  <si>
+    <t>(x: 59, y: 42)</t>
+  </si>
+  <si>
+    <t>(x: 101, y: 129)</t>
+  </si>
+  <si>
+    <t>15 , 8</t>
+  </si>
+  <si>
+    <t>6.53 , 20.37</t>
+  </si>
+  <si>
+    <t>(x: 201, y: 52)</t>
+  </si>
+  <si>
+    <t>(x: 234, y: 131)</t>
+  </si>
+  <si>
+    <t>7 , 15</t>
+  </si>
+  <si>
+    <t>20.37 , 25.58</t>
+  </si>
+  <si>
+    <t>(x: 90, y: 55)</t>
+  </si>
+  <si>
+    <t>(x: 138, y: 106)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4.03</t>
+  </si>
+  <si>
+    <t>(x: 189, y: 11)</t>
+  </si>
+  <si>
+    <t>(x: 184, y: 62)</t>
+  </si>
+  <si>
+    <t>12 , 14</t>
+  </si>
+  <si>
+    <t>3.38 , 14.86</t>
+  </si>
+  <si>
+    <t>(x: 102, y: 103)</t>
+  </si>
+  <si>
+    <t>(x: 152, y: 166)</t>
+  </si>
+  <si>
+    <t>9 , 13</t>
+  </si>
+  <si>
+    <t>4.03 , 14.67</t>
+  </si>
+  <si>
+    <t>(x: 181, y: 82)</t>
+  </si>
+  <si>
+    <t>(x: 169, y: 179)</t>
+  </si>
+  <si>
+    <t>10 , 14</t>
+  </si>
+  <si>
+    <t>3.38 , 13.01</t>
+  </si>
+  <si>
+    <t>(x: 0, y: 114)</t>
+  </si>
+  <si>
+    <t>(x: 51, y: 181)</t>
+  </si>
+  <si>
+    <t>14.67</t>
+  </si>
+  <si>
+    <t>(x: 101, y: 94)</t>
+  </si>
+  <si>
+    <t>(x: 93, y: 148)</t>
+  </si>
+  <si>
+    <t>10 , 12</t>
+  </si>
+  <si>
+    <t>14.86 , 13.01</t>
+  </si>
+  <si>
+    <t>(x: 80, y: 162)</t>
+  </si>
+  <si>
+    <t>(x: 107, y: 222)</t>
+  </si>
+  <si>
+    <t>7 , 8</t>
+  </si>
+  <si>
+    <t>6.53 , 25.58</t>
   </si>
 </sst>
 </file>
@@ -582,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16.41</v>
+        <v>18.03</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -634,22 +580,16 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>22.13</v>
+        <v>23.48</v>
       </c>
       <c r="F2">
-        <v>12.13</v>
+        <v>18.48</v>
       </c>
       <c r="G2">
-        <v>32.13</v>
+        <v>28.48</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -657,31 +597,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28.44</v>
+        <v>22.35</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>146.5</v>
+        <v>173.57</v>
       </c>
       <c r="F3">
-        <v>136.5</v>
+        <v>168.57</v>
       </c>
       <c r="G3">
-        <v>156.5</v>
+        <v>178.57</v>
       </c>
       <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -689,31 +623,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.4</v>
+        <v>12.28</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>160.28</v>
+        <v>135</v>
       </c>
       <c r="F4">
-        <v>150.28</v>
+        <v>130</v>
       </c>
       <c r="G4">
-        <v>170.28</v>
+        <v>140</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -721,31 +655,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12.41</v>
+        <v>16.53</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>169.14</v>
+        <v>135</v>
       </c>
       <c r="F5">
-        <v>159.14</v>
+        <v>130</v>
       </c>
       <c r="G5">
-        <v>179.14</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -753,31 +687,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11.66</v>
+        <v>20.24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>29.13</v>
+        <v>154.07</v>
       </c>
       <c r="F6">
-        <v>19.13</v>
+        <v>149.07</v>
       </c>
       <c r="G6">
-        <v>39.13</v>
+        <v>159.07</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -785,31 +713,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>20.91</v>
+        <v>15.44</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>136.62</v>
+        <v>38.85</v>
       </c>
       <c r="F7">
-        <v>126.62</v>
+        <v>33.85</v>
       </c>
       <c r="G7">
-        <v>146.62</v>
+        <v>43.85</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -817,31 +739,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>16.36</v>
+        <v>16.13</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>153.96</v>
+        <v>64.23</v>
       </c>
       <c r="F8">
-        <v>143.96</v>
+        <v>59.23</v>
       </c>
       <c r="G8">
-        <v>163.96</v>
+        <v>69.23</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -849,31 +771,31 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12.19</v>
+        <v>14.3</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>138.89</v>
+        <v>67.33</v>
       </c>
       <c r="F9">
-        <v>128.89</v>
+        <v>62.33</v>
       </c>
       <c r="G9">
-        <v>148.89</v>
+        <v>72.33</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -881,31 +803,31 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>16.53</v>
+        <v>11.7</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>46.74</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>41.74</v>
       </c>
       <c r="G10">
-        <v>55</v>
+        <v>51.74</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -913,31 +835,31 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13.07</v>
+        <v>8.56</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>51.23</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F11">
-        <v>41.23</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="G11">
-        <v>61.23</v>
+        <v>100.6</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -945,31 +867,31 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15.54</v>
+        <v>13.43</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>61.78</v>
+        <v>51.56</v>
       </c>
       <c r="F12">
-        <v>51.78</v>
+        <v>46.56</v>
       </c>
       <c r="G12">
-        <v>71.78</v>
+        <v>56.56</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -977,31 +899,31 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>27.86</v>
+        <v>16.32</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>52.31</v>
+        <v>97.05</v>
       </c>
       <c r="F13">
-        <v>42.31</v>
+        <v>92.05</v>
       </c>
       <c r="G13">
-        <v>62.31</v>
+        <v>102.05</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1009,25 +931,31 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13.95</v>
+        <v>14.06</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>78.95999999999999</v>
+        <v>52.72</v>
       </c>
       <c r="F14">
-        <v>68.95999999999999</v>
+        <v>47.72</v>
       </c>
       <c r="G14">
-        <v>88.95999999999999</v>
+        <v>57.72</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1035,31 +963,31 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>10.36</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E15">
-        <v>91.84999999999999</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="F15">
-        <v>81.84999999999999</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="G15">
-        <v>101.85</v>
+        <v>103.43</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1067,127 +995,31 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>14.65</v>
+        <v>10.99</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E16">
-        <v>46.85</v>
+        <v>65.77</v>
       </c>
       <c r="F16">
-        <v>36.85</v>
+        <v>60.77</v>
       </c>
       <c r="G16">
-        <v>56.85</v>
+        <v>70.77</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>18.68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17">
-        <v>47.9</v>
-      </c>
-      <c r="F17">
-        <v>37.9</v>
-      </c>
-      <c r="G17">
-        <v>57.9</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>15.33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18">
-        <v>97.51000000000001</v>
-      </c>
-      <c r="F18">
-        <v>87.51000000000001</v>
-      </c>
-      <c r="G18">
-        <v>107.51</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>12.86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19">
-        <v>90.73999999999999</v>
-      </c>
-      <c r="F19">
-        <v>80.73999999999999</v>
-      </c>
-      <c r="G19">
-        <v>100.74</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
